--- a/DIY PDU.xlsx
+++ b/DIY PDU.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ee8e564478dde7c/Documents/Visual Studio 2019/Projects/PicoPDU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{1334F377-CBE1-43A4-8444-0B7D53091839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{057C0F69-B3C0-43FB-9143-D6B0EB733387}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{1334F377-CBE1-43A4-8444-0B7D53091839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FA3EE594-BAB7-4F3F-BF33-61A9524718B6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-10920" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
   <si>
     <t>Bought</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>https://uk.rs-online.com/web/p/iec-connectors/0449310A/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/product/B07KJJ8KBD/ref=crt_ewc_img_huc_1?ie=UTF8&amp;psc=1&amp;smid=A23EDIC2J9BKD0</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -460,7 +463,7 @@
       </c>
       <c r="D1" s="2" t="str">
         <f>_xlfn.CONCAT(_xlfn.CONCAT("Price (£",SUM(D2:D46)),")")</f>
-        <v>Price (£222)</v>
+        <v>Price (£231.99)</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -499,7 +502,7 @@
     </row>
     <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -511,7 +514,7 @@
         <v>7.17</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E21" si="0">SUM(D2/C2)</f>
+        <f t="shared" ref="E2:E22" si="0">SUM(D2/C2)</f>
         <v>1.4339999999999999</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -548,7 +551,7 @@
     </row>
     <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -838,7 +841,7 @@
     </row>
     <row r="9" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -934,7 +937,7 @@
     </row>
     <row r="11" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -981,7 +984,7 @@
     </row>
     <row r="12" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="13" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
@@ -1046,7 +1049,7 @@
       <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="5"/>
@@ -1075,7 +1078,7 @@
     </row>
     <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>6</v>
@@ -1093,7 +1096,7 @@
       <c r="F14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="5"/>
@@ -1187,7 +1190,7 @@
       <c r="F16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="5"/>
@@ -1263,25 +1266,25 @@
     </row>
     <row r="18" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D18" s="6">
         <v>10.48</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>10.48</v>
+        <v>0.87333333333333341</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="5"/>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="21" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>5</v>
@@ -1423,7 +1426,7 @@
       <c r="F21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="5"/>
@@ -1451,13 +1454,28 @@
       <c r="AD21" s="5"/>
     </row>
     <row r="22" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>9.99</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>1.998</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -32619,7 +32637,7 @@
       <c r="AD995" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -32632,8 +32650,13 @@
     <hyperlink ref="G11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="G20" r:id="rId11" xr:uid="{28FDB9D1-6330-426E-B4CB-38923E001629}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{1D933E9B-C7F2-4B35-95DE-9F96E0B7A264}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{997AE680-6E7B-4A6C-9025-573E9E8B2D4C}"/>
+    <hyperlink ref="G21" r:id="rId14" xr:uid="{B889452E-5E6B-4BA4-908A-68CA55CFE69F}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{76097AEF-7AEF-4A7C-B1BE-2A5DFF94875B}"/>
+    <hyperlink ref="G16" r:id="rId16" xr:uid="{64E0FFD5-B42C-4574-B95C-F298C7EF5B68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>